--- a/db/pets_highlights.xlsx
+++ b/db/pets_highlights.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="460" windowWidth="15260" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="6440" windowWidth="26720" windowHeight="11180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="374">
   <si>
     <t>["Your mixed breed, as with all dogs, is an individual. Don't prejudge his temperament according to his looks, or expect him to act a certain way just because he resembles a dog you once had as a kid. Love him on his own terms, and your love will be rewarded."]</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Cairn Terrier</t>
   </si>
   <si>
-    <t>Cesky Terrier</t>
-  </si>
-  <si>
     <t>Dandie Dinmont Terrier</t>
   </si>
   <si>
@@ -825,15 +822,9 @@
     <t>American Water Spaniel</t>
   </si>
   <si>
-    <t>Barbet</t>
-  </si>
-  <si>
     <t>Boykin Spaniel</t>
   </si>
   <si>
-    <t>Bracco Italiano</t>
-  </si>
-  <si>
     <t>Brittany</t>
   </si>
   <si>
@@ -882,9 +873,6 @@
     <t>Yorkshire Terrier Yorkie</t>
   </si>
   <si>
-    <t>Appenzeller Sennenhunde</t>
-  </si>
-  <si>
     <t>Australian Cattle Dog</t>
   </si>
   <si>
@@ -927,9 +915,6 @@
     <t>Collie</t>
   </si>
   <si>
-    <t>Entlebucher Mountain Dog</t>
-  </si>
-  <si>
     <t>Finnish Lapphund</t>
   </si>
   <si>
@@ -1050,9 +1035,6 @@
     <t>Sloughi</t>
   </si>
   <si>
-    <t>Treeing Tennessee Brindle</t>
-  </si>
-  <si>
     <t>Treeing Walker Coonhound</t>
   </si>
   <si>
@@ -1132,6 +1114,64 @@
   </si>
   <si>
     <t>Bedlington Terrier</t>
+  </si>
+  <si>
+    <t>["The Xolo comes in three different sizes, so the breed is adaptable to any type of home.",
+ "Native to Mexico and Central America, the Xolo is also known as the Mexican Hairless.",
+ "The Xolo is thought to date to pre-Columbian civilizations.",
+ "Although he’s known as a hairless breed, the Xolo also comes in a coated variety.",
+ "The Xolo’s body is slightly longer than it is tall.",
+ "In addition to being a great companion, the Xolo is also a protective watchdog.",
+ "The Xolo’s lack of an insulating fur coat makes him feel warm to the touch, even though his body temperature is not any higher than that of other dogs.",
+ "The Xolo was recognized by the American Kennel Club in 2011 as a member of the Non-Sporting Group.",
+ "There are fewer than 1,000 Xolos in the United States, with approximately 30,000 worldwide.",
+ "The Xolo is not hypoallergenic, although his hairless body may be less likely to trigger allergies in susceptible individuals.",
+ "The Xolo can have a strong prey drive and is likely to chase other animals."]</t>
+  </si>
+  <si>
+    <t>Xoloitzcuintle / Mexican Hairless</t>
+  </si>
+  <si>
+    <t>Jindo</t>
+  </si>
+  <si>
+    <t>["Jindo were originally used as hunting dogs in their native country due to their prey instinct and strict loyalty. Despite this proclivity, the breed has also been assigned to the non-sporting group by the AKC suggesting that they do not require frequent, significant exercise." ,  "However, Jindo do have medium-high energy levels and their high intelligence requires almost constant stimulation. If left alone for long periods of time, a Jindo will find a way to entertain itself (and not always in the most productive manner)", "Young Jundos have been known to destroy funiture, demolish small objects, and climb walls and fences when left alone for too long.", "These dogs make great apartment-dwellers, they need frequent walks to burn off their high eneryg, but their natural neatness and desire to be close to people makes them good indoor dogs.", "No swmming! Jindos are knwn to be apprehensive and even downright fearful of water. They do not make great water companions."]</t>
+  </si>
+  <si>
+    <t>Terrier</t>
+  </si>
+  <si>
+    <t>Hound</t>
+  </si>
+  <si>
+    <t>["Many Hound dogs make very good companions and very much like rambunctious children. Yet some of the hound dogs would rather be hunting than anything else.", "Focused hungting dogs, maybe seem a bit distant and aloof, which is part of their nature. Their minds are actively seeking and they are instinctively ready for the chase. ", "Hound dogs can make reliable sturdy pets, with exceptional stamina. But Hound dogs are hound dogs, so no matter which breed of hound dog it is, keep in mind that these are instinctual hunting dogs.",  "Once a hound dog catches a scent or sees a moving target, it will readily pursue it with no bounds."]</t>
+  </si>
+  <si>
+    <t>["Terrier's natural instincts are to bark, dig, and chase. These behaviors can be minimized with training, but they can't be eliminated. If you don't enjoy the typical terrier temperament, you should consider another breed.", "Terrier is intelligent and curious. He also has a mind of his own. He will challenge your authority ” good naturedly, of course â€” but you must be able to establish and maintain your role as pack leader, or he'll get the upper hand.", "Terriers loves the attention of his family. Do not leave him alone for long periods of time or he may become destructive.", " Terrier often thinks he's bigger than he actually is. Don't be surprised if he stands up for himself against large dogs or animals.", "To get a healthy dog, never buy a puppy from an irresponsible breeder, puppy mill, or pet store. Look for a reputable breeder who tests her breeding dogs to make sure they're free of genetic diseases that they might pass onto the puppies, and that they have sound temperaments."]</t>
+  </si>
+  <si>
+    <t>American Bulldog</t>
+  </si>
+  <si>
+    <t>["Although they were used fo bull baiting a long time ago, they have since become working farm dogs and family companions.", "The breed alost went extinct near end of World War II, but the breed has since been revived and is in no danger of disappearing.", "This breed does not do well being left home alone for long hours, and they have high exercise needs. They are not well-suited for apartment life and prefer a large, fenced in yard to roam around. ", "American Bulldogs can be suspicious of strangers and territorial, which can make them good watchdogs. They require socialization training so they know how to behave around invited guests. "]</t>
+  </si>
+  <si>
+    <t>English Bulldog</t>
+  </si>
+  <si>
+    <t>Standard Poodle</t>
+  </si>
+  <si>
+    <t>Shepherd</t>
+  </si>
+  <si>
+    <t>["To live with a Shepherd is to take on a highly energetic, intelligent, mischievous companion whose passion for you will be matched only by his desire to work. Be prepared to stimulate his mind and fulfill his need for activity with a challenging dog sport or some kind of flock that he can take charge of. ", "Ever vigilant he tends to be distrustful of strangers and makes an excellent watchdog.", "You should give your Shepherd plenty of socialization, beginning in early puppyhood, to ensure his lively personality develops to its fullest potential."]</t>
+  </si>
+  <si>
+    <t>["Comical and curious, this intelligent and devoted dog loves to spend time with his people, whether it's going for walks, running errands, or playing with the kids. ", "He excels at manipulating people to get his way, and can be difficult to housetrain, so be patient and consistent."]</t>
+  </si>
+  <si>
+    <t>["Descended from English Foxhounds and formerly classified as an English Coonhound, the Treeing Walker earned his name by trailing game faster than other coonhounds and then treeing it until the hunter arrived.", "The classic tricolour hound has a racy build, a short, clear bark, and a strong desire to hunt. ", "Personalities range from outgoing to bashful to protective. They requires patient, consistent training and plenty of daily exercise. "]</t>
   </si>
 </sst>
 </file>
@@ -1462,20 +1502,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B70" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="114.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -1483,7 +1524,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1491,7 +1532,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1499,7 +1540,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1507,7 +1548,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1515,7 +1556,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1523,7 +1564,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1531,7 +1572,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1539,7 +1580,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1547,7 +1588,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1555,7 +1596,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1563,7 +1604,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1571,7 +1612,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1579,7 +1620,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1587,7 +1628,7 @@
     </row>
     <row r="15" spans="1:2" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -1595,7 +1636,7 @@
     </row>
     <row r="16" spans="1:2" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
@@ -1603,23 +1644,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
+        <v>359</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -1627,7 +1668,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -1635,7 +1676,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -1643,7 +1684,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -1651,7 +1692,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -1659,7 +1700,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -1667,7 +1708,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1675,7 +1716,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -1683,7 +1724,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -1691,7 +1732,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -1699,7 +1740,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -1707,7 +1748,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -1715,7 +1756,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -1723,7 +1764,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -1731,15 +1772,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>295</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1747,7 +1788,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -1755,7 +1796,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1763,7 +1804,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -1771,7 +1812,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1779,7 +1820,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1787,7 +1828,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -1795,7 +1836,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -1803,7 +1844,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -1811,15 +1852,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -1827,7 +1868,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -1835,7 +1876,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -1843,7 +1884,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1851,7 +1892,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -1859,7 +1900,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1867,7 +1908,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1875,7 +1916,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -1883,7 +1924,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
@@ -1891,7 +1932,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
@@ -1899,7 +1940,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
@@ -1907,7 +1948,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -1915,7 +1956,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -1923,7 +1964,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -1931,7 +1972,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -1939,7 +1980,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -1947,7 +1988,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -1955,7 +1996,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -1963,7 +2004,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1971,7 +2012,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
@@ -1979,7 +2020,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -1987,7 +2028,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -1995,7 +2036,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -2003,7 +2044,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
@@ -2011,7 +2052,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
@@ -2019,7 +2060,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -2027,7 +2068,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -2035,7 +2076,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -2043,7 +2084,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
@@ -2051,7 +2092,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -2059,23 +2100,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2083,7 +2124,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -2091,7 +2132,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -2099,7 +2140,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -2107,7 +2148,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
@@ -2115,7 +2156,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -2123,7 +2164,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -2131,7 +2172,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
@@ -2139,7 +2180,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -2147,7 +2188,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
@@ -2155,7 +2196,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -2163,7 +2204,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
@@ -2171,7 +2212,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
@@ -2179,7 +2220,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
@@ -2187,15 +2228,15 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -2203,7 +2244,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -2211,7 +2252,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -2219,7 +2260,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -2227,7 +2268,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -2235,7 +2276,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -2243,7 +2284,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -2251,7 +2292,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -2259,7 +2300,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -2267,7 +2308,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -2275,7 +2316,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -2283,7 +2324,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -2291,7 +2332,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -2299,7 +2340,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -2307,7 +2348,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -2315,7 +2356,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -2323,7 +2364,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -2331,7 +2372,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -2339,7 +2380,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -2347,7 +2388,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -2355,7 +2396,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -2363,7 +2404,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -2371,7 +2412,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
@@ -2379,7 +2420,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -2387,7 +2428,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
@@ -2395,7 +2436,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -2403,7 +2444,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -2411,7 +2452,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
@@ -2419,7 +2460,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -2427,7 +2468,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
@@ -2435,7 +2476,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
@@ -2459,15 +2500,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
         <v>122</v>
@@ -2475,7 +2516,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
         <v>123</v>
@@ -2483,7 +2524,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>124</v>
@@ -2491,7 +2532,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
         <v>125</v>
@@ -2499,7 +2540,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B129" t="s">
         <v>126</v>
@@ -2507,7 +2548,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
         <v>127</v>
@@ -2515,7 +2556,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" t="s">
         <v>128</v>
@@ -2523,7 +2564,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" t="s">
         <v>129</v>
@@ -2531,7 +2572,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s">
         <v>130</v>
@@ -2539,7 +2580,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s">
         <v>131</v>
@@ -2547,7 +2588,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B135" t="s">
         <v>132</v>
@@ -2555,7 +2596,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B136" t="s">
         <v>133</v>
@@ -2563,7 +2604,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B137" t="s">
         <v>134</v>
@@ -2571,7 +2612,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B138" t="s">
         <v>135</v>
@@ -2579,7 +2620,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B139" t="s">
         <v>136</v>
@@ -2587,7 +2628,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B140" t="s">
         <v>137</v>
@@ -2595,7 +2636,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B141" t="s">
         <v>138</v>
@@ -2603,7 +2644,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B142" t="s">
         <v>139</v>
@@ -2611,7 +2652,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B143" t="s">
         <v>140</v>
@@ -2619,7 +2660,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B144" t="s">
         <v>141</v>
@@ -2627,7 +2668,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B145" t="s">
         <v>142</v>
@@ -2635,7 +2676,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B146" t="s">
         <v>143</v>
@@ -2643,7 +2684,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
         <v>144</v>
@@ -2651,7 +2692,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B148" t="s">
         <v>145</v>
@@ -2659,7 +2700,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B149" t="s">
         <v>146</v>
@@ -2667,7 +2708,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B150" t="s">
         <v>147</v>
@@ -2675,7 +2716,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B151" t="s">
         <v>148</v>
@@ -2683,7 +2724,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B152" t="s">
         <v>149</v>
@@ -2691,7 +2732,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
         <v>150</v>
@@ -2699,7 +2740,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
         <v>151</v>
@@ -2707,7 +2748,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B155" t="s">
         <v>152</v>
@@ -2715,7 +2756,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
@@ -2723,7 +2764,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
         <v>153</v>
@@ -2731,7 +2772,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
         <v>154</v>
@@ -2739,7 +2780,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
         <v>155</v>
@@ -2747,7 +2788,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
         <v>156</v>
@@ -2755,7 +2796,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B161" t="s">
         <v>157</v>
@@ -2763,7 +2804,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B162" t="s">
         <v>158</v>
@@ -2771,7 +2812,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B163" t="s">
         <v>159</v>
@@ -2779,7 +2820,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -2787,7 +2828,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s">
         <v>160</v>
@@ -2795,7 +2836,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B166" t="s">
         <v>161</v>
@@ -2803,7 +2844,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B167" t="s">
         <v>162</v>
@@ -2811,7 +2852,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -2819,7 +2860,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B169" t="s">
         <v>163</v>
@@ -2827,7 +2868,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B170" t="s">
         <v>164</v>
@@ -2835,7 +2876,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B171" t="s">
         <v>165</v>
@@ -2843,7 +2884,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B172" t="s">
         <v>166</v>
@@ -2851,7 +2892,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B173" t="s">
         <v>167</v>
@@ -2859,7 +2900,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B174" t="s">
         <v>168</v>
@@ -2867,7 +2908,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B175" t="s">
         <v>169</v>
@@ -2875,7 +2916,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B176" t="s">
         <v>0</v>
@@ -2883,7 +2924,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B177" t="s">
         <v>1</v>
@@ -2891,15 +2932,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -2907,15 +2948,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -2923,7 +2964,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
@@ -2931,7 +2972,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -2939,7 +2980,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -2947,7 +2988,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -2955,7 +2996,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -2963,7 +3004,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B187" t="s">
         <v>9</v>
@@ -2971,7 +3012,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -2979,7 +3020,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -2987,7 +3028,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B190" t="s">
         <v>12</v>
@@ -2995,7 +3036,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
@@ -3003,7 +3044,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B192" t="s">
         <v>14</v>
@@ -3011,7 +3052,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B193" t="s">
         <v>15</v>
@@ -3019,7 +3060,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B194" t="s">
         <v>16</v>
@@ -3027,10 +3068,26 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B195" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B196" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/db/pets_highlights.xlsx
+++ b/db/pets_highlights.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="6440" windowWidth="26720" windowHeight="11180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="375">
   <si>
     <t>["Your mixed breed, as with all dogs, is an individual. Don't prejudge his temperament according to his looks, or expect him to act a certain way just because he resembles a dog you once had as a kid. Love him on his own terms, and your love will be rewarded."]</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>["Descended from English Foxhounds and formerly classified as an English Coonhound, the Treeing Walker earned his name by trailing game faster than other coonhounds and then treeing it until the hunter arrived.", "The classic tricolour hound has a racy build, a short, clear bark, and a strong desire to hunt. ", "Personalities range from outgoing to bashful to protective. They requires patient, consistent training and plenty of daily exercise. "]</t>
+  </si>
+  <si>
+    <t>Yellow Labrador Retriever</t>
   </si>
 </sst>
 </file>
@@ -1502,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B197"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B70" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A189" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -3088,6 +3091,14 @@
       </c>
       <c r="B197" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
